--- a/DesignDocument/STM32F103版资料/充电曲线参数设定 V1.1.xlsx
+++ b/DesignDocument/STM32F103版资料/充电曲线参数设定 V1.1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DYH\01_EmbeddedSoftware\Github\0.1_OBC\DesignDocument\STM32F103版资料\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F31EF0-55FA-404E-8CF4-B6E7B5D6B23B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-300" yWindow="1725" windowWidth="20730" windowHeight="5880"/>
+    <workbookView xWindow="-300" yWindow="1728" windowWidth="20736" windowHeight="5880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t>充电曲线参数设定值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,14 +229,18 @@
   </si>
   <si>
     <t>0：无此阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5表示100%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,18 +368,94 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -404,7 +490,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -436,9 +522,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -470,6 +574,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -645,31 +767,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="2" max="2" width="6.875" customWidth="1"/>
-    <col min="3" max="3" width="7.375" customWidth="1"/>
-    <col min="4" max="4" width="7.625" customWidth="1"/>
-    <col min="8" max="8" width="7.25" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7.21875" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="10" max="10" width="7.125" customWidth="1"/>
-    <col min="11" max="11" width="6.875" customWidth="1"/>
-    <col min="12" max="12" width="5.875" customWidth="1"/>
-    <col min="13" max="13" width="6.625" customWidth="1"/>
-    <col min="17" max="17" width="7.375" customWidth="1"/>
-    <col min="18" max="18" width="9.25" customWidth="1"/>
-    <col min="19" max="19" width="10.5" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" customWidth="1"/>
+    <col min="11" max="11" width="6.88671875" customWidth="1"/>
+    <col min="12" max="12" width="5.88671875" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" customWidth="1"/>
+    <col min="17" max="17" width="7.33203125" customWidth="1"/>
+    <col min="18" max="18" width="9.21875" customWidth="1"/>
+    <col min="19" max="19" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -692,7 +814,7 @@
       <c r="R1" s="5"/>
       <c r="S1" s="6"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -751,7 +873,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" ht="44.25" customHeight="1">
+    <row r="3" spans="1:19" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -810,7 +932,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -869,7 +991,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -928,7 +1050,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -987,7 +1109,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>43</v>
       </c>
@@ -1046,7 +1168,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
@@ -1105,7 +1227,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>51</v>
       </c>
@@ -1164,7 +1286,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="1" customFormat="1" ht="27" customHeight="1">
+    <row r="10" spans="1:19" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>50</v>
       </c>
@@ -1195,7 +1317,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="1" customFormat="1" ht="29.25" customHeight="1">
+    <row r="11" spans="1:19" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -1252,6 +1374,11 @@
       </c>
       <c r="S11" s="3" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1265,12 +1392,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1278,12 +1405,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignDocument/STM32F103版资料/充电曲线参数设定 V1.1.xlsx
+++ b/DesignDocument/STM32F103版资料/充电曲线参数设定 V1.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DYH\01_EmbeddedSoftware\Github\0.1_OBC\DesignDocument\STM32F103版资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F31EF0-55FA-404E-8CF4-B6E7B5D6B23B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1991E2A3-5E0C-4745-B37C-B73493416D82}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-300" yWindow="1728" windowWidth="20736" windowHeight="5880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -768,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1379,6 +1379,52 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>B4*5</f>
+        <v>3.75</v>
+      </c>
+      <c r="C15">
+        <f>C4*5</f>
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <f>D4*5</f>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f>E4*5</f>
+        <v>3.75</v>
+      </c>
+      <c r="F15">
+        <f>F4*5</f>
+        <v>3.75</v>
+      </c>
+      <c r="G15">
+        <f>G4*5</f>
+        <v>3.75</v>
+      </c>
+      <c r="H15">
+        <f>H4*12</f>
+        <v>15.96</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ref="I15:L15" si="0">I4*12</f>
+        <v>22.919999999999998</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>29.400000000000002</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>31.200000000000003</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>27.599999999999998</v>
       </c>
     </row>
   </sheetData>
